--- a/文档/无尽深空策划案.xlsx
+++ b/文档/无尽深空策划案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13200" activeTab="9"/>
+    <workbookView windowWidth="24135" windowHeight="13200" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
   <si>
     <t>POE与ROGUELITE游戏分析</t>
   </si>
@@ -314,6 +314,9 @@
     <t>绝对值：生命上限，生命恢复值，攻击力，防御力，吸血值（战斗中掉落，商店购买可得）</t>
   </si>
   <si>
+    <t>攻击力，生命上限，生命恢复值，能量上限，能量恢复值。</t>
+  </si>
+  <si>
     <t>生命恢复值：每秒恢复生命的数值。</t>
   </si>
   <si>
@@ -406,9 +409,15 @@
     <t>技能分为两种，攻击技能，被动技能。攻击技能和被动技能各可以选择两个。技能有等级，有成长。</t>
   </si>
   <si>
+    <t>伤害相关系数</t>
+  </si>
+  <si>
     <t>攻击技能：</t>
   </si>
   <si>
+    <t>攻击力</t>
+  </si>
+  <si>
     <t>攻击-弹道-自施放-单次伤害</t>
   </si>
   <si>
@@ -421,10 +430,13 @@
     <t>能量场：人物周围出现永久的激光能量区域。基于自身最大生命和攻击力对自身和敌人造成伤害。该技能会自动持续施放。DMG = ATK + X * REC - DEF</t>
   </si>
   <si>
+    <t>攻击-范围-手动施放-单次伤害</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闪现打击：随机攻击5个敌人。伤害衰减。DMG = （ATK - DEF）* X </t>
+  </si>
+  <si>
     <t>攻击-弹道-手动施放-单次伤害</t>
-  </si>
-  <si>
-    <t xml:space="preserve">连锁炸弹：向距离最近的敌人发射一枚连锁炸弹。伤害衰减。DMG = （ATK - DEF）* X </t>
   </si>
   <si>
     <t>导弹：发射数枚追踪导弹，攻击敌人，随机攻击目标。</t>
@@ -526,6 +538,9 @@
   </si>
   <si>
     <t>动能声波：持续消耗自身生命值,发出环形波，对周围敌人持续造成伤害。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">连锁炸弹：向距离最近的敌人发射一枚连锁炸弹。伤害衰减。DMG = （ATK - DEF）* X </t>
   </si>
   <si>
     <t>4秒内没有敌人死亡时，你的下一次攻击伤害增加50%</t>
@@ -696,12 +711,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -724,13 +739,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -778,7 +786,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -788,9 +802,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -808,6 +830,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -816,22 +899,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,79 +924,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -950,6 +958,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -962,7 +988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,7 +1000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,7 +1012,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,7 +1054,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,25 +1084,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,79 +1108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,7 +1126,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,13 +1167,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,69 +1245,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1256,6 +1253,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1264,10 +1272,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1276,133 +1284,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1422,7 +1430,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1431,26 +1439,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1458,16 +1469,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3862,7 +3870,7 @@
   <sheetPr/>
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -3870,27 +3878,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4073,7 +4081,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -4094,16 +4102,18 @@
       </c>
     </row>
     <row r="4" ht="17.25" spans="2:2">
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4118,7 +4128,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4128,30 +4138,30 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:2">
@@ -4162,20 +4172,20 @@
     </row>
     <row r="8" ht="17.25" spans="1:2">
       <c r="A8" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:2">
@@ -4186,20 +4196,20 @@
     </row>
     <row r="13" ht="17.25" spans="1:2">
       <c r="A13" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="2:2">
@@ -4207,14 +4217,14 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -4240,172 +4250,194 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33.875" customWidth="1"/>
-    <col min="16" max="16" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="5"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
+    <row r="1" spans="2:2">
+      <c r="B1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>64</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
       <c r="B6" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>66</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q8" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="5" t="s">
-        <v>71</v>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>66</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
         <v>66</v>
       </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="7">
+      <c r="B11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R11" s="7">
         <v>150</v>
       </c>
-      <c r="R11" s="7">
+      <c r="S11" s="7">
         <v>0</v>
       </c>
-      <c r="S11" s="7">
+      <c r="T11" s="7">
         <v>30</v>
       </c>
-      <c r="T11" s="7">
+      <c r="U11" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="16:20">
-      <c r="P12" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q12" s="7">
+    <row r="12" spans="17:21">
+      <c r="Q12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R12" s="7">
         <v>200</v>
       </c>
-      <c r="R12" s="7">
+      <c r="S12" s="7">
         <v>10</v>
-      </c>
-      <c r="S12" s="7">
-        <v>20</v>
       </c>
       <c r="T12" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="7"/>
+      <c r="U12" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="5" t="s">
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="5" t="s">
+    <row r="16" spans="2:3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="17" spans="3:3">
+      <c r="C17" s="5" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4431,54 +4463,54 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="10:10">
       <c r="J8" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" s="5"/>
       <c r="J9" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:2">
@@ -4486,44 +4518,44 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -4531,30 +4563,30 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="2:2">
@@ -4562,33 +4594,33 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4610,12 +4642,12 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4623,12 +4655,12 @@
     </row>
     <row r="4" ht="17.25" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -4636,12 +4668,12 @@
     </row>
     <row r="7" ht="17.25" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -4649,12 +4681,12 @@
     </row>
     <row r="10" ht="17.25" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4676,27 +4708,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/文档/无尽深空策划案.xlsx
+++ b/文档/无尽深空策划案.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\endlessSky\endlessSky\文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13200" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24135" windowHeight="13200" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="2" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="140">
   <si>
     <t>POE与ROGUELITE游戏分析</t>
   </si>
@@ -66,7 +71,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>+</t>
     </r>
@@ -84,7 +89,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>+</t>
     </r>
@@ -113,7 +118,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ROGUELITE</t>
     </r>
@@ -418,33 +423,18 @@
     <t>攻击力</t>
   </si>
   <si>
-    <t>攻击-弹道-自施放-单次伤害</t>
-  </si>
-  <si>
     <t>舰载火炮：向前方发出炮火攻击，受弹道数影响。该技能会自动持续施放。DMG = (ATK - DEF) * X</t>
   </si>
   <si>
-    <t>攻击-范围-自施放-持续伤害</t>
-  </si>
-  <si>
     <t>能量场：人物周围出现永久的激光能量区域。基于自身最大生命和攻击力对自身和敌人造成伤害。该技能会自动持续施放。DMG = ATK + X * REC - DEF</t>
   </si>
   <si>
-    <t>攻击-范围-手动施放-单次伤害</t>
-  </si>
-  <si>
     <t xml:space="preserve">闪现打击：随机攻击5个敌人。伤害衰减。DMG = （ATK - DEF）* X </t>
   </si>
   <si>
-    <t>攻击-弹道-手动施放-单次伤害</t>
-  </si>
-  <si>
     <t>导弹：发射数枚追踪导弹，攻击敌人，随机攻击目标。</t>
   </si>
   <si>
-    <t>攻击-范围-手动施放-持续伤害</t>
-  </si>
-  <si>
     <t>镭射激光：发射威力巨大的激光，造成巨大的伤害。</t>
   </si>
   <si>
@@ -475,22 +465,13 @@
     <t>坚韧：增加生命恢复。</t>
   </si>
   <si>
-    <t>装甲：增加防御力。</t>
-  </si>
-  <si>
     <t>稳固：增加最大生命值。</t>
   </si>
   <si>
-    <t>吸血：增加吸血值。</t>
-  </si>
-  <si>
     <t>凌厉：增加攻击力。</t>
   </si>
   <si>
     <t>因为神器是随机获得的，运气成分很大，所以被动技能最好做到面面俱到，适当减少运气成分对策略的影响。</t>
-  </si>
-  <si>
-    <t>bullet_common</t>
   </si>
   <si>
     <t>神器有等级，成长。玩家可选择丢弃或暂时存储不想要的神器。</t>
@@ -649,7 +630,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>增加战舰的掉落</t>
     </r>
@@ -705,18 +686,71 @@
   <si>
     <t>技能伤害比例 = 基础伤害比例 * 不同词缀加成</t>
   </si>
+  <si>
+    <t>你每空余一个技能栏，你的伤害提高50%</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每装备一个被动技能，你的所有属性提高10%</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>攻击-弹道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单次伤害</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击-范围-持续伤害</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击-范围-单次伤害</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击-弹道-单次伤害</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击-范围-持续伤害</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击-范围-持续伤害</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加所有带有“单次伤害”词缀的技能的技能伤害。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,7 +768,7 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -777,7 +811,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -787,31 +821,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF92D050"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -819,125 +844,12 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -956,194 +868,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1166,255 +892,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1478,69 +962,31 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1562,7 +1008,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1583,7 +1029,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1597,7 +1043,7 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="矩形 20"/>
         <xdr:cNvSpPr/>
@@ -1662,7 +1108,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>57785</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="椭圆 1"/>
         <xdr:cNvSpPr/>
@@ -1701,7 +1147,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>神器</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1720,7 +1165,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>13335</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="椭圆 3"/>
         <xdr:cNvSpPr/>
@@ -1857,7 +1302,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>装备，技能</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1876,7 +1320,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="椭圆 4"/>
         <xdr:cNvSpPr/>
@@ -2013,7 +1457,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>属性</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2032,7 +1475,7 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>162007</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
         <xdr:cNvCxnSpPr>
@@ -2082,7 +1525,7 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>108032</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
         <xdr:cNvCxnSpPr>
@@ -2132,7 +1575,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>41593</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
         <xdr:cNvCxnSpPr>
@@ -2182,7 +1625,7 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>51117</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="10" name="曲线连接符 9"/>
         <xdr:cNvCxnSpPr/>
@@ -2236,7 +1679,7 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>155657</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="曲线连接符 10"/>
         <xdr:cNvCxnSpPr>
@@ -2293,7 +1736,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>37782</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="12" name="曲线连接符 11"/>
         <xdr:cNvCxnSpPr>
@@ -2350,7 +1793,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
         <xdr:cNvCxnSpPr/>
@@ -2397,7 +1840,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
         <xdr:cNvCxnSpPr/>
@@ -2449,7 +1892,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="椭圆 14"/>
         <xdr:cNvSpPr/>
@@ -2586,7 +2029,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>养成元素</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2605,7 +2047,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>73977</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="16" name="曲线连接符 15"/>
         <xdr:cNvCxnSpPr/>
@@ -2659,7 +2101,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>38735</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
         <xdr:cNvCxnSpPr>
@@ -2712,7 +2154,7 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
         <xdr:cNvCxnSpPr>
@@ -2764,7 +2206,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>6985</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="椭圆 7"/>
         <xdr:cNvSpPr/>
@@ -2901,7 +2343,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>战斗过程</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2920,7 +2361,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
         <xdr:cNvCxnSpPr/>
@@ -2961,7 +2402,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2975,7 +2416,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="椭圆 1"/>
         <xdr:cNvSpPr/>
@@ -3014,7 +2455,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>战斗掉落</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3033,7 +2473,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>7734</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
         <xdr:cNvCxnSpPr>
@@ -3083,7 +2523,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="椭圆 4"/>
         <xdr:cNvSpPr/>
@@ -3122,7 +2562,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>神器</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3141,7 +2580,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="椭圆 5"/>
         <xdr:cNvSpPr/>
@@ -3199,7 +2638,7 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="椭圆 6"/>
         <xdr:cNvSpPr/>
@@ -3238,7 +2677,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>技能</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3257,7 +2695,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
         <xdr:cNvCxnSpPr>
@@ -3307,7 +2745,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
         <xdr:cNvCxnSpPr>
@@ -3357,7 +2795,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="椭圆 28"/>
         <xdr:cNvSpPr/>
@@ -3396,7 +2834,6 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>装备</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3415,7 +2852,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp>
+    <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
         <xdr:cNvCxnSpPr>
@@ -3472,7 +2909,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3773,19 +3210,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.125" customWidth="1"/>
     <col min="2" max="2" width="7.875" customWidth="1"/>
@@ -3794,12 +3231,12 @@
     <col min="5" max="5" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:1">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="2:5">
+    <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
@@ -3813,7 +3250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:5">
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -3830,7 +3267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:5">
+    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
@@ -3847,166 +3284,163 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:1">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:1">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:1">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:1">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="17.25" spans="1:2">
+    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="17"/>
       <c r="B5" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:1">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="7:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="7:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="7:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="8:8">
+    <row r="30" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" ht="17.25" spans="1:1">
+    <row r="35" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" ht="17.25" spans="1:1">
+    <row r="36" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="6" spans="10:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="14" t="s">
         <v>30</v>
       </c>
@@ -4014,139 +3448,137 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="10:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J8" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="10:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J9" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="10:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J10" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="10:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J11" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="10:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J12" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="10:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J13" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="10:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J14" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="10:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J15" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="10:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J16" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="8:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="7:7">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="G22" s="14"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:1">
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" ht="17.25" spans="2:2">
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" ht="17.25" spans="2:2">
+    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:1">
+    <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" ht="17.25" spans="1:2">
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>49</v>
       </c>
@@ -4154,23 +3586,23 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" ht="17.25" spans="2:2">
+    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" ht="17.25" spans="2:2">
+    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" ht="17.25" spans="1:2">
+    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>53</v>
       </c>
@@ -4178,23 +3610,23 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="2:2">
+    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" ht="17.25" spans="2:2">
+    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" ht="17.25" spans="1:2">
+    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>57</v>
       </c>
@@ -4202,76 +3634,75 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" ht="17.25" spans="2:2">
+    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" ht="17.25" spans="2:2">
+    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" ht="17.25" spans="2:2">
+    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="2"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B18" s="12" t="s">
         <v>62</v>
       </c>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" ht="17.25" spans="1:1">
+    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" ht="17.25" spans="1:1">
+    <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:U24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="33.875" customWidth="1"/>
     <col min="17" max="17" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B2" s="5"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -4279,88 +3710,88 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>69</v>
+      <c r="B7" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>71</v>
+      <c r="B8" s="21" t="s">
+        <v>135</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>73</v>
+      <c r="B9" s="21" t="s">
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="U10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>69</v>
+      <c r="B11" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R11" s="7">
         <v>150</v>
@@ -4375,9 +3806,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="17:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="Q12" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R12" s="7">
         <v>200</v>
@@ -4392,347 +3823,342 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="3:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C17" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C18" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C19" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C20" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C21" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C27" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B19" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" spans="1:1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" ht="17.25" spans="1:1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="10:10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J8" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B9" s="5"/>
       <c r="J9" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
       <c r="J15" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="5" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="5" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="5" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="5" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="5" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="5" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="5" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="5" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="5"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:1">
+    <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" spans="1:1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" ht="17.25" spans="1:1">
+    <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" ht="17.25" spans="1:1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" ht="17.25" spans="1:1">
+    <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" ht="17.25" spans="1:1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" ht="17.25" spans="1:1">
+    <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" ht="17.25" spans="1:1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" spans="2:2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" spans="2:2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" spans="2:2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" ht="17.25" spans="2:2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/文档/无尽深空策划案.xlsx
+++ b/文档/无尽深空策划案.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="144">
   <si>
     <t>POE与ROGUELITE游戏分析</t>
   </si>
@@ -745,12 +745,41 @@
     <t>增加所有带有“单次伤害”词缀的技能的技能伤害。</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>攻击力-》生命值</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量恢复速率-》生命恢复速率</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ange - continue</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>trajectory - single</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,6 +877,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -893,12 +941,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -968,9 +1019,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3684,7 +3739,7 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3832,7 +3887,7 @@
       <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B15" s="5"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="5" t="s">
         <v>80</v>
       </c>
@@ -3864,12 +3919,17 @@
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="21" t="s">
+        <v>143</v>
+      </c>
       <c r="C21" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B22" s="5"/>
+      <c r="B22" s="21" t="s">
+        <v>142</v>
+      </c>
       <c r="C22" s="5" t="s">
         <v>98</v>
       </c>
@@ -3891,7 +3951,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B17:B19"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3974,6 +4034,16 @@
       </c>
       <c r="J16" s="5" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">

--- a/文档/无尽深空策划案.xlsx
+++ b/文档/无尽深空策划案.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24135" windowHeight="13200" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24135" windowHeight="13200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="2" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="神器#" sheetId="7" r:id="rId7"/>
     <sheet name="养成天赋" sheetId="5" r:id="rId8"/>
     <sheet name="buff" sheetId="8" r:id="rId9"/>
-    <sheet name="alpha测试版内容" sheetId="10" r:id="rId10"/>
+    <sheet name="测试版内容" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="143">
   <si>
     <t>POE与ROGUELITE游戏分析</t>
   </si>
@@ -136,12 +136,6 @@
     <t>前路未知的刺激+见风使舵的策略</t>
   </si>
   <si>
-    <t>失落城堡：</t>
-  </si>
-  <si>
-    <t>游戏中玩家装备有武器和防具，</t>
-  </si>
-  <si>
     <t>简单介绍：以打飞机游戏为原型的割草游戏，本质是RogueLite。玩家在挑战完预设关卡后进入无尽模式继续挑战。</t>
   </si>
   <si>
@@ -255,25 +249,10 @@
     <t>经济循环：玩家在战斗中获得资源，升级养成元素需要一定的时间。使用钻石可以瞬间完成。</t>
   </si>
   <si>
-    <t>可装备四个技能 任意组合</t>
-  </si>
-  <si>
     <t>思路：</t>
   </si>
   <si>
-    <t>小明进入游戏，获得了初始技能舰载火炮（攻击-弹道-自施放-单次伤害），传统的打飞机体验。并在战斗过程中获得了较多的最大生命属性</t>
-  </si>
-  <si>
-    <t>在第X关，小明获得了追踪导弹技能（攻击-弹道-手动施放-单次伤害） 发现自己的伤害不足，小明装备了该技能。轻松过关。</t>
-  </si>
-  <si>
-    <t>在第Y关，小明获得了神器 自动能量核心（你装备的所有自动施放的技能伤害提高50%），于是换回自动施放的技能舰载火炮和能量场。输出爆炸。</t>
-  </si>
-  <si>
     <t>在第Z关，小明获得了高等级的黄色核心（百分比增加最大生命）和神器零点射击（距离越近伤害越高），越战越勇（持续伤害技能伤害增加）</t>
-  </si>
-  <si>
-    <t>小明技能换为动能声波(攻击-范围-手动施放-持续伤害) 和 能量场(攻击-范围-自施放-持续伤害)</t>
   </si>
   <si>
     <t>在第50关，小明不幸被秒，卒。死亡时身上物品按比例转为金币。</t>
@@ -302,9 +281,6 @@
       </rPr>
       <t>3个技能中选择一个，你在战斗中掉落更多的金币。</t>
     </r>
-  </si>
-  <si>
-    <t>小明选择了A战舰，该战舰有高等级的能量场技能和神器零点射击，和增加最大生命的装备及被动技能，并且直接从40层开始。</t>
   </si>
   <si>
     <t>小明开始了游戏。</t>
@@ -772,6 +748,116 @@
   </si>
   <si>
     <t>trajectory - single</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>小明选择了A战舰，该战舰直接从40层开始。并有高等级的能量场技能和神器零点射击，和增加最大生命的装备及被动技能，</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗中掉落 神器 属性 技能 装备等物品</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过关卡后出现商店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小明进入游戏，获得了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>初始技能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>舰载火炮（攻击-弹道-单次伤害），传统的打飞机体验。并在战斗过程中获得了较多的最大生命属性</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在第X关，战斗中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>掉落了追踪导弹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>技能（攻击-弹道-单次伤害） 小明装备了该技能。轻松过关。</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在第Y关，小明获得了神器 自动能量核心（你装备的所有自动施放的技能伤害提高50%），于是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>换回自动施放的技能舰载火炮和能量场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。输出爆炸。</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>技能换为动能声波(攻击-范围-持续伤害) 和 能量场(攻击-范围-持续伤害)</t>
+    </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -949,7 +1035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,6 +1108,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1041,49 +1130,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4018246</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>151665</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1304925"/>
-          <a:ext cx="10427970" cy="5875655"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2456,7 +2502,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2945,20 +2991,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>636976</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>151971</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>475005</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="图片 45"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2971,8 +3017,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="3924300"/>
-          <a:ext cx="9590405" cy="3428365"/>
+          <a:off x="2857500" y="3943350"/>
+          <a:ext cx="9961905" cy="1542857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3271,10 +3317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3339,21 +3385,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3369,27 +3404,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3402,71 +3437,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="17"/>
       <c r="B5" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3479,10 +3514,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:J25"/>
+  <dimension ref="B5:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3490,62 +3525,67 @@
     <col min="1" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J6" s="8" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J8" s="8" t="s">
-        <v>32</v>
+      <c r="J8" s="24" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J9" s="8" t="s">
-        <v>33</v>
+      <c r="J9" s="24" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J10" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J11" s="8" t="s">
-        <v>35</v>
+      <c r="J11" s="24" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J12" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J13" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J14" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J15" s="8" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="J16" s="8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
@@ -3560,7 +3600,8 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3576,32 +3617,32 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3615,7 +3656,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3625,30 +3666,30 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -3659,20 +3700,20 @@
     </row>
     <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -3683,20 +3724,20 @@
     </row>
     <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -3704,14 +3745,14 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B18" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -3721,7 +3762,7 @@
     </row>
     <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -3738,8 +3779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3751,7 +3792,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
@@ -3759,43 +3800,43 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -3803,50 +3844,50 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="T10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="U10" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="R11" s="7">
         <v>150</v>
@@ -3863,7 +3904,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="Q12" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="R12" s="7">
         <v>200</v>
@@ -3880,7 +3921,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -3889,54 +3930,54 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B15" s="23"/>
       <c r="C15" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C17" s="22" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C18" s="22" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C19" s="22" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C20" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="21" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="21" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C27" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3951,7 +3992,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3961,54 +4002,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J8" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B9" s="5"/>
       <c r="J9" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -4016,44 +4057,44 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -4061,30 +4102,30 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B27" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B28" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -4092,33 +4133,33 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B32" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" s="5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4139,12 +4180,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
@@ -4152,12 +4193,12 @@
     </row>
     <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
@@ -4165,12 +4206,12 @@
     </row>
     <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
@@ -4178,12 +4219,12 @@
     </row>
     <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4204,27 +4245,27 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/文档/无尽深空策划案.xlsx
+++ b/文档/无尽深空策划案.xlsx
@@ -9,26 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24135" windowHeight="13200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24135" windowHeight="13200" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="2" r:id="rId1"/>
     <sheet name="游戏介绍-功能逻辑" sheetId="1" r:id="rId2"/>
     <sheet name="循环" sheetId="9" r:id="rId3"/>
-    <sheet name="属性解释" sheetId="4" r:id="rId4"/>
-    <sheet name="核心与护甲" sheetId="3" r:id="rId5"/>
-    <sheet name="技能# " sheetId="6" r:id="rId6"/>
-    <sheet name="神器#" sheetId="7" r:id="rId7"/>
-    <sheet name="养成天赋" sheetId="5" r:id="rId8"/>
-    <sheet name="buff" sheetId="8" r:id="rId9"/>
-    <sheet name="测试版内容" sheetId="10" r:id="rId10"/>
+    <sheet name="Build维度" sheetId="11" r:id="rId4"/>
+    <sheet name="属性" sheetId="4" r:id="rId5"/>
+    <sheet name="核心与护甲" sheetId="3" r:id="rId6"/>
+    <sheet name="技能# " sheetId="6" r:id="rId7"/>
+    <sheet name="神器#" sheetId="7" r:id="rId8"/>
+    <sheet name="bug" sheetId="12" r:id="rId9"/>
+    <sheet name="养成天赋" sheetId="5" r:id="rId10"/>
+    <sheet name="buff" sheetId="8" r:id="rId11"/>
+    <sheet name="测试版内容" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="176">
   <si>
     <t>POE与ROGUELITE游戏分析</t>
   </si>
@@ -247,15 +249,6 @@
   </si>
   <si>
     <t>经济循环：玩家在战斗中获得资源，升级养成元素需要一定的时间。使用钻石可以瞬间完成。</t>
-  </si>
-  <si>
-    <t>思路：</t>
-  </si>
-  <si>
-    <t>在第Z关，小明获得了高等级的黄色核心（百分比增加最大生命）和神器零点射击（距离越近伤害越高），越战越勇（持续伤害技能伤害增加）</t>
-  </si>
-  <si>
-    <t>在第50关，小明不幸被秒，卒。死亡时身上物品按比例转为金币。</t>
   </si>
   <si>
     <t>小明获得了大量金币（用于升级天赋或打造随机的战舰，十连抽有没有）和两艘战舰（随机掉落的战舰，开始关卡，属性，自带的神器都不同）</t>
@@ -295,9 +288,6 @@
     <t>绝对值：生命上限，生命恢复值，攻击力，防御力，吸血值（战斗中掉落，商店购买可得）</t>
   </si>
   <si>
-    <t>攻击力，生命上限，生命恢复值，能量上限，能量恢复值。</t>
-  </si>
-  <si>
     <t>生命恢复值：每秒恢复生命的数值。</t>
   </si>
   <si>
@@ -488,9 +478,6 @@
     <t>当你对敌人造成伤害时，你们距离越近，伤害越高。</t>
   </si>
   <si>
-    <t>当你对敌人造成伤害时，你们距离越远，伤害越高。</t>
-  </si>
-  <si>
     <t>每当你受到来自自己的伤害，增加X的生命恢复。</t>
   </si>
   <si>
@@ -500,9 +487,6 @@
     <t xml:space="preserve">连锁炸弹：向距离最近的敌人发射一枚连锁炸弹。伤害衰减。DMG = （ATK - DEF）* X </t>
   </si>
   <si>
-    <t>4秒内没有敌人死亡时，你的下一次攻击伤害增加50%</t>
-  </si>
-  <si>
     <t>增加所有带有“范围”词缀的技能的技能范围。</t>
   </si>
   <si>
@@ -516,9 +500,6 @@
   </si>
   <si>
     <t>战斗-其它：</t>
-  </si>
-  <si>
-    <t>消灭敌人永久增加属性。</t>
   </si>
   <si>
     <t>每消灭一个敌人，获得X的额外金币。</t>
@@ -556,28 +537,6 @@
   </si>
   <si>
     <t>主动技能的CD减少30%，当你释放技能时对自身造成20%最大生命值的伤害。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当你消灭敌人时，有3%的几率刷新技能冷却。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>有1%的几率重置技能冷却。</t>
-    </r>
   </si>
   <si>
     <t>每次施放技能时回复自身生命值。</t>
@@ -755,16 +714,131 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>通过关卡后出现商店</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>并在战斗过程中获得了较多的最大生命属性</t>
+  </si>
+  <si>
+    <r>
+      <t>小明进入游戏，获得了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>初始技能舰载火炮（攻击-弹道-单次伤害）（向自身周围发射子弹，极低蓝耗）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，传统的打飞机体验。</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>4秒内没有敌人死亡时，你的下一次攻击伤害增加50%</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>镭射激光：发射威力巨大的激光，造成巨大的伤害。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击-范围-持续伤害</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在第A关，战斗中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">掉落了闪现技能（攻击-范围-单次伤害）(随机打击5个敌人，伤害极低。技能持续期间你不会受到伤害，并且造成的所有伤害提高30%，CD2秒，消耗30%最大HP) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小明装备了该技能，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>偶尔使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在第C关，小明掉落了技能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>镭射激光（攻击-范围-持续伤害）（向正前方发射威力巨大的激光，造成巨大的伤害，持续1秒，较高蓝耗）。</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你对敌人造成伤害时，你们距离越远，伤害越高。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>湮灭：经过3秒蓄力，向正前方发射一颗能量球，对敌人造成极大伤害。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>战斗中掉落 神器 属性 技能 装备等物品</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>通过关卡后出现商店</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>小明进入游戏，获得了</t>
+    <r>
+      <t>小明使用了</t>
     </r>
     <r>
       <rPr>
@@ -775,7 +849,280 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>初始技能</t>
+      <t>锁定掉落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>功能，只掉落你当前装备类型的 核心，技能，神器。但有更高的几率掉落更好品质，等级的。</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>经过思考后，小明在商店购买了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿色核心（装备）（固定增加较多生命恢复速率，以及其它属性）。可以使用 闪现+镭射激光 清小怪图了。但在面对boss要打很久。</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>至此，小明的策略为：总是距离怪物最远，等待死亡之钟的buff。如果是群怪，使用镭射激光。如果是boss，使用湮灭。但在面对boss时还是要打两三轮湮灭。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>致命射线：发射射线持续追踪攻击所有敌人。中等蓝耗。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在第D关，小明掉落了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF6699"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>神器超距（当你对敌人造成伤害时，你们距离越远，伤害越高。）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">并在商店里购买了 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>湮灭：经过3秒蓄力，向正前方发射一颗能量球，对敌人造成极大伤害。极高蓝耗（攻击-范围-单次伤害）。</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击-弹道-持续伤害</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>追踪导弹：发射数枚追踪导弹，攻击敌人，随机攻击目标。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>至此，小明的策略为：总是距离怪物最远，等待死亡之钟的buff。如果是群怪，使用追踪导弹。如果是boss，使用湮灭。效果不错，现在可以轻松过关了。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在第E关，小明掉落了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被动技能 凌厉（增加基础攻击力），</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>经过思考，小明认为自己需要加强对抗boss的输出。而闪现在对抗boss时并没用。</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>并将 闪现技能 替换为被动技能 凌厉（+攻击）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在第n关，小明不幸被秒，卒。死亡时身上物品按比例转为金币。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在第B关，小明感觉自己的伤害不太够了。小明掉落了神器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF6699"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>死亡之钟（4秒内没有敌人死亡时，你的下一次技能伤害额外增加50%）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>但并无卵用，因为闪现和舰载火炮的单次技能伤害都很低。</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">于是，小明购买了技能 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>追踪导弹：发射数枚追踪导弹，攻击敌人，随机攻击目标。（攻击-弹道-单次伤害）和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF6699"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>神器迅疾（额外增加所有带有单次伤害词缀的技能30%的伤害）</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力，防御力，生命上限，生命恢复值，能量上限，能量恢复值。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击力*技能系数*技能词缀系数1*技能词缀系数2*技能词缀系数3*额外增加系数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>消灭敌人永久增加属性。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量场：人物周围出现永久的激光能量区域。基于自身最大生命和攻击力对自身和敌人造成伤害。该技能会自动持续施放。DMG = ATK + X * REC - DEF</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力，防御力，生命上限，生命恢复值，能量上限，能量恢复值，移动速度。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝耗</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>血耗</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果（弹道类的速度，范围类的范围）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量场：生成永久的激光能量区域。基于自身最大生命和攻击力对自身和敌人造成伤害。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>词缀伤害影响</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>词缀效果影响（弹道类增加速度，范围类增加范围）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>消灭敌人永久增加属性。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗方式加成（4秒不攻击加成伤害的buff，零点射击等）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能之间的搭配：闪现配AOE。应对单，群体怪物</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>舰载火炮：向前方发出炮火攻击，受弹道数影响。该技能会自动持续施放。DMG = (ATK - DEF) * X</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当你消灭敌人时，有3%的几率刷新技能冷却。</t>
     </r>
     <r>
       <rPr>
@@ -785,78 +1132,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>舰载火炮（攻击-弹道-单次伤害），传统的打飞机体验。并在战斗过程中获得了较多的最大生命属性</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在第X关，战斗中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>掉落了追踪导弹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>技能（攻击-弹道-单次伤害） 小明装备了该技能。轻松过关。</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在第Y关，小明获得了神器 自动能量核心（你装备的所有自动施放的技能伤害提高50%），于是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>换回自动施放的技能舰载火炮和能量场</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。输出爆炸。</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>小明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>技能换为动能声波(攻击-范围-持续伤害) 和 能量场(攻击-范围-持续伤害)</t>
+      <t>有1%的几率重置技能冷却。</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -865,7 +1141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -982,6 +1258,67 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF6699"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1035,7 +1372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1111,6 +1448,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1118,6 +1470,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6699"/>
+      <color rgb="FF66FFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2506,15 +2864,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2524,8 +2882,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2371725" y="1628775"/>
-          <a:ext cx="1152525" cy="638175"/>
+          <a:off x="2371725" y="1800226"/>
+          <a:ext cx="1152525" cy="638174"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2563,16 +2921,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>612267</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7734</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2613,15 +2971,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>504826</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2670,16 +3028,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2728,15 +3086,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2785,15 +3143,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2835,15 +3193,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>612267</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>116092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2885,15 +3243,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2942,15 +3300,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2989,22 +3347,27 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>475005</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171257</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>513086</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3017,8 +3380,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2857500" y="3943350"/>
-          <a:ext cx="9961905" cy="1542857"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10114286" cy="4695238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3320,7 +3683,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3394,6 +3757,112 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3404,27 +3873,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3514,88 +3983,258 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:J25"/>
+  <dimension ref="A5:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="18.125" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J5" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J6" s="8" t="s">
+    <row r="5" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G5" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G6" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G7" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G8" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G9" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G10" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G11" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G12" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G13" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G14" s="24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G15" s="24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="7:15" x14ac:dyDescent="0.15">
+      <c r="G16" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G17" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G18" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G20" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G21" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G22" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G23" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="G24" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J27" s="25"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J8" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J9" s="24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J10" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J11" s="24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J12" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J13" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J14" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J15" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="J16" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="G22" s="14"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="14"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -3606,6 +4245,232 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+    </row>
+    <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+    </row>
+    <row r="6" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -3617,32 +4482,32 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>36</v>
+      <c r="B4" s="27" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3651,12 +4516,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3666,30 +4531,30 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -3700,20 +4565,20 @@
     </row>
     <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -3724,20 +4589,20 @@
     </row>
     <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
@@ -3745,14 +4610,14 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B18" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D18" s="11"/>
     </row>
@@ -3762,7 +4627,7 @@
     </row>
     <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
@@ -3775,12 +4640,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3792,7 +4657,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
@@ -3800,43 +4665,43 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>59</v>
+        <v>117</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>60</v>
+        <v>118</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -3844,50 +4709,50 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="R11" s="7">
         <v>150</v>
@@ -3904,7 +4769,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="Q12" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="R12" s="7">
         <v>200</v>
@@ -3921,7 +4786,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B14" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -3930,54 +4795,54 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B15" s="23"/>
       <c r="C15" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C17" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C18" s="22" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C19" s="22" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C20" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="21" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="21" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C27" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3987,12 +4852,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4002,54 +4867,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J8" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="5"/>
       <c r="J9" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="5" t="s">
-        <v>83</v>
+      <c r="B11" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -4057,44 +4922,44 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>87</v>
+      <c r="B16" s="21" t="s">
+        <v>132</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B21" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -4102,30 +4967,30 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B25" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B27" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B28" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -4133,98 +4998,33 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="5" t="s">
-        <v>100</v>
+      <c r="B32" s="21" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B33" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4235,41 +5035,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>